--- a/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_not_correct.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_not_correct.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="139">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -364,7 +364,10 @@
     <t>kinetic mechanism</t>
   </si>
   <si>
-    <t>order</t>
+    <t>substrate order</t>
+  </si>
+  <si>
+    <t>product order</t>
   </si>
   <si>
     <t>promiscuous</t>
@@ -569,7 +572,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -701,8 +704,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:C7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -848,7 +851,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1071,7 +1074,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1389,18 +1392,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -1434,146 +1437,167 @@
       <c r="K1" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
+      <c r="E3" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>128</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>132</v>
       </c>
       <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
+      <c r="E6" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>134</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>135</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,116 +1605,116 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>137</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +1736,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2649,7 +2673,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3033,7 +3057,7 @@
   <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="C2:C7 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3257,7 +3281,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3354,7 +3378,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3486,7 +3510,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3618,7 +3642,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C2:C7 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3799,7 +3823,7 @@
   <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="C2:C7 A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_not_correct.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_not_correct.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -379,10 +379,10 @@
     <t>activators</t>
   </si>
   <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
+    <t>negative effectors</t>
+  </si>
+  <si>
+    <t>positive effectors</t>
   </si>
   <si>
     <t>allosteric</t>
@@ -458,7 +458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -484,6 +484,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -539,12 +547,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,7 +584,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -705,7 +717,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:C7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A1:K1 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -851,7 +863,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1074,7 +1086,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1395,7 +1407,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1404,37 +1416,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1607,7 +1619,7 @@
       <c r="B8" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
@@ -1736,7 +1748,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2673,7 +2685,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3057,7 +3069,7 @@
   <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="C2:C7 A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="A1:K1 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3281,7 +3293,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3378,7 +3390,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3510,7 +3522,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3642,7 +3654,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C2:C7 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A1:K1 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3823,7 +3835,7 @@
   <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="C2:C7 A22"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="A1:K1 A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_not_correct.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_not_correct.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="128">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
   </si>
   <si>
-    <t xml:space="preserve">ORACLE</t>
+    <t xml:space="preserve">GRASP</t>
   </si>
   <si>
     <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
@@ -63,6 +63,15 @@
     <t xml:space="preserve">gurobi</t>
   </si>
   <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
@@ -315,34 +324,25 @@
     <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vref_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vref_std</t>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction ID</t>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -513,7 +513,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -524,6 +524,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -540,32 +544,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="L2:L16 B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="A1:C1 B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,29 +615,29 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -642,15 +645,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -658,14 +661,28 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -678,38 +695,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L16 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938105540546311</v>
@@ -723,7 +737,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.948692986021061</v>
@@ -737,7 +751,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.963822080137339</v>
@@ -751,7 +765,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.781513345189378</v>
@@ -765,7 +779,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -779,7 +793,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -793,7 +807,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -807,7 +821,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -821,7 +835,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -835,7 +849,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -849,7 +863,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -863,7 +877,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -877,7 +891,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -901,38 +915,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L16 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.600926593306472</v>
@@ -946,7 +957,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -960,7 +971,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -974,7 +985,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -988,7 +999,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1002,7 +1013,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.897059063218122</v>
@@ -1016,7 +1027,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.879431204670374</v>
@@ -1030,7 +1041,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.851303699101255</v>
@@ -1044,7 +1055,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.913109189061105</v>
@@ -1058,7 +1069,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.965053927008861</v>
@@ -1072,7 +1083,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.622035526990772</v>
@@ -1086,7 +1097,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.799696511562971</v>
@@ -1100,7 +1111,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1114,7 +1125,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1128,7 +1139,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1142,7 +1153,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1156,7 +1167,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.771228436522274</v>
@@ -1170,7 +1181,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.967924985045021</v>
@@ -1184,7 +1195,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.994407168746068</v>
@@ -1198,7 +1209,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.989083174460458</v>
@@ -1222,53 +1233,50 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A1:C1 L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>113</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1277,7 +1285,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>115</v>
@@ -1289,7 +1297,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1300,7 +1308,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>117</v>
@@ -1323,7 +1331,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>120</v>
@@ -1338,7 +1346,7 @@
         <v>122</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1349,7 +1357,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>123</v>
@@ -1369,7 +1377,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>117</v>
@@ -1392,7 +1400,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>120</v>
@@ -1407,7 +1415,7 @@
         <v>126</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1418,12 +1426,12 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
@@ -1433,7 +1441,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>127</v>
@@ -1447,7 +1455,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>127</v>
@@ -1461,7 +1469,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>127</v>
@@ -1475,7 +1483,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>127</v>
@@ -1489,7 +1497,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>127</v>
@@ -1503,7 +1511,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>127</v>
@@ -1527,89 +1535,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1674,7 +1679,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1739,7 +1744,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1804,7 +1809,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1869,7 +1874,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1934,7 +1939,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1999,7 +2004,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2064,7 +2069,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2129,7 +2134,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2194,7 +2199,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2259,7 +2264,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2324,7 +2329,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2389,7 +2394,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2464,39 +2469,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L16 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A1:C1 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2504,10 +2508,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2515,10 +2519,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2526,10 +2530,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2537,10 +2541,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2548,10 +2552,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2559,10 +2563,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2570,10 +2574,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2581,10 +2585,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2592,10 +2596,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2603,10 +2607,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2614,10 +2618,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2625,10 +2629,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2636,10 +2640,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2647,10 +2651,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2658,10 +2662,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2669,10 +2673,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2680,10 +2684,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2691,10 +2695,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2702,10 +2706,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2723,42 +2727,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L16 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A1:C1 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2766,10 +2769,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2777,10 +2780,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2788,10 +2791,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2799,10 +2802,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2810,10 +2813,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2821,10 +2824,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2832,10 +2835,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2843,10 +2846,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2854,10 +2857,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2865,10 +2868,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2876,10 +2879,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2887,10 +2890,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2908,124 +2911,121 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3040,124 +3040,121 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3172,35 +3169,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="L2:L16 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A1:C1 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3211,7 +3205,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3222,7 +3216,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3233,7 +3227,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3244,7 +3238,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3255,7 +3249,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3266,7 +3260,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3277,7 +3271,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3288,7 +3282,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3299,7 +3293,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3310,7 +3304,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3321,7 +3315,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3332,7 +3326,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3353,35 +3347,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="L2:L16 A22"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="A1:C1 A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.000228462011808056</v>
@@ -3392,7 +3383,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3403,7 +3394,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3414,7 +3405,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3425,7 +3416,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3436,7 +3427,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00559675402823174</v>
@@ -3447,7 +3438,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.00310804602125163</v>
@@ -3458,7 +3449,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.0308279171448426</v>
@@ -3469,7 +3460,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.00181042853161852</v>
@@ -3480,7 +3471,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8.28736361429022E-005</v>
@@ -3491,7 +3482,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.00604381725975038</v>
@@ -3502,7 +3493,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1E-012</v>
@@ -3513,7 +3504,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3524,7 +3515,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3535,7 +3526,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1E-012</v>
@@ -3546,7 +3537,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>9.44630572239322E-006</v>
@@ -3557,7 +3548,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5.16846874940607E-006</v>
@@ -3568,7 +3559,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.000856570953217132</v>
@@ -3579,7 +3570,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00016291524956886</v>
@@ -3590,7 +3581,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1E-012</v>
@@ -3612,36 +3603,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L16 D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-81.4547774583559</v>
@@ -3652,7 +3642,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>18.5183721041727</v>
@@ -3663,7 +3653,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.431738943043251</v>
@@ -3674,7 +3664,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.567354685137039</v>
@@ -3685,7 +3675,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>85.3794767878033</v>
@@ -3696,7 +3686,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.103545682502924</v>
